--- a/StrumentiMusicaliApp/TemplateExcel/ProtoPagamento.xlsx
+++ b/StrumentiMusicaliApp/TemplateExcel/ProtoPagamento.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fastcode13042017\Source\Repos\StrumentiMusicali\StrumentiMusicaliApp\TemplateExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BA6184-6722-4CD6-85C8-02FB1FCEC6A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$29</definedName>
     <definedName name="Articolo">Sheet1!$D$5</definedName>
     <definedName name="ImportoRata">Sheet1!$E$6</definedName>
     <definedName name="ImportoResiduo">Sheet1!$E$7</definedName>
     <definedName name="ImportoTotale">Sheet1!$E$8</definedName>
     <definedName name="Nome">Sheet1!$D$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$26</definedName>
-    <definedName name="Righe">Sheet1!$B$10:$E$20</definedName>
+    <definedName name="Righe">Sheet1!$B$10:$E$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Importo Totale:</t>
   </si>
@@ -51,23 +45,26 @@
     <t>Articolo:</t>
   </si>
   <si>
-    <t>Data rata</t>
-  </si>
-  <si>
     <t>Importo Rata</t>
   </si>
   <si>
     <t>Importo residuo</t>
   </si>
+  <si>
+    <t>Scadenze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rata pagata il </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +110,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,59 +286,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -344,24 +338,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -378,10 +392,9 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -393,10 +406,9 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -408,7 +420,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -422,7 +433,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -440,10 +450,9 @@
         <sz val="14"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -478,7 +487,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ED4C36-FD68-4A97-AB37-050253025F75}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ED4C36-FD68-4A97-AB37-050253025F75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -503,7 +512,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -518,12 +527,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4022AF0-2ED4-440E-B2F3-271409E19B20}" name="Table1" displayName="Table1" ref="B10:D19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B10:D19" xr:uid="{A04F6034-2834-4F26-BAEA-27EC0C79271A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:D22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B10:D22"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{87580C14-3900-449E-9A88-1125B08DB691}" name="Data rata" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{A14CF939-0008-4F7E-84BA-259D44F224ED}" name="Importo Rata" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{561BF6FB-EBAA-4AD8-8C7E-4F7B424DA91E}" name="Importo residuo" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="1" name="Scadenze" dataDxfId="2"/>
+    <tableColumn id="2" name="Importo Rata" dataDxfId="1"/>
+    <tableColumn id="3" name="Importo residuo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -572,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -624,7 +633,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -818,22 +827,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -844,174 +853,200 @@
     <col min="7" max="7" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="25" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="16.5" thickBot="1">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="19" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="2:6" ht="19.5" thickBot="1">
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1">
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="27" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="2:6" ht="19.5" thickBot="1">
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="2:6" ht="19.5" thickBot="1">
+      <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="29" t="s">
+    <row r="7" spans="2:6" ht="19.5" thickBot="1">
+      <c r="D7" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="28" t="s">
+    <row r="8" spans="2:6" ht="19.5" thickBot="1">
+      <c r="D8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="18.75">
       <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>6</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>7</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
+    <row r="11" spans="2:6" ht="15.75">
+      <c r="B11" s="34"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="15.75">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="15.75">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+    <row r="15" spans="2:6" ht="15.75">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+    <row r="16" spans="2:6" ht="15.75">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="15.75">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15.75">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="15.75">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="10"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+    <row r="20" spans="2:6" ht="15.75">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
+    <row r="21" spans="2:6" ht="15.75">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
+    <row r="22" spans="2:6" ht="15.75">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6">
       <c r="B23" s="1"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="6"/>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="27">
+        <f ca="1">NOW()</f>
+        <v>43787.869088194442</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6">
       <c r="B25" s="1"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/StrumentiMusicaliApp/TemplateExcel/ProtoPagamento.xlsx
+++ b/StrumentiMusicaliApp/TemplateExcel/ProtoPagamento.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fastcode13042017\Source\Repos\StrumentiMusicali\StrumentiMusicaliApp\bin\Debug\TemplateExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C7578-F420-4502-9C5F-EC604CA2D301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$29</definedName>
     <definedName name="Articolo">Sheet1!$D$5</definedName>
     <definedName name="ImportoRata">Sheet1!$E$6</definedName>
     <definedName name="ImportoResiduo">Sheet1!$E$7</definedName>
     <definedName name="ImportoTotale">Sheet1!$E$8</definedName>
     <definedName name="Nome">Sheet1!$D$3</definedName>
-    <definedName name="Righe">Sheet1!$B$10:$E$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$21</definedName>
+    <definedName name="Righe">Sheet1!$B$10:$E$14</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,11 +72,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,12 +122,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,49 +292,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -343,16 +349,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,11 +371,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -394,7 +393,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -408,7 +407,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -452,7 +451,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -487,7 +486,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ED4C36-FD68-4A97-AB37-050253025F75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ED4C36-FD68-4A97-AB37-050253025F75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -512,7 +511,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -527,12 +526,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B10:D22" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B10:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B10:D14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B10:D14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scadenze" dataDxfId="2"/>
-    <tableColumn id="2" name="Importo Rata" dataDxfId="1"/>
-    <tableColumn id="3" name="Importo residuo" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Scadenze" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Importo Rata" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Importo residuo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -581,7 +580,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -633,7 +632,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -827,84 +826,84 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:F28"/>
+  <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:6" ht="16.5" thickBot="1">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="2:6" ht="19.5" thickBot="1">
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="2:6" ht="16.5" thickBot="1">
+    <row r="3" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="2:6" ht="19.5" thickBot="1">
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="2:6" ht="19.5" thickBot="1">
+    <row r="5" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" ht="19.5" thickBot="1">
+    <row r="7" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="19.5" thickBot="1">
+    <row r="8" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="22" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="18.75">
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
@@ -917,136 +916,80 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" ht="15.75">
-      <c r="B11" s="34"/>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" ht="15.75">
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="10"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="15.75">
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" ht="15.75">
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="15.75">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" ht="15.75">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="24">
+        <f ca="1">NOW()</f>
+        <v>43789.521411226851</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" ht="15.75">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" ht="15.75">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" ht="15.75">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" ht="15.75">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="1"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="27">
-        <f ca="1">NOW()</f>
-        <v>43787.869088194442</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="1"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="1"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="1"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="1"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
